--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2466.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2466.xlsx
@@ -354,7 +354,7 @@
         <v>2.547492050064077</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>3.410469274591294</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2466.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2466.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.119501206830486</v>
+        <v>1.696681380271912</v>
       </c>
       <c r="B1">
-        <v>2.547492050064077</v>
+        <v>2.546590805053711</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.157073736190796</v>
       </c>
       <c r="D1">
-        <v>3.410469274591294</v>
+        <v>2.389169692993164</v>
       </c>
       <c r="E1">
-        <v>0.9388235036385122</v>
+        <v>0.460883766412735</v>
       </c>
     </row>
   </sheetData>
